--- a/配置表/z自我检测结果.xlsx
+++ b/配置表/z自我检测结果.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\wechat_game\wechat_game_medicine\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\养生大师\wechat_game_medicine\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>字段说明</t>
   </si>
@@ -71,18 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[-10,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11,20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,16 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结果1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果2</t>
-  </si>
-  <si>
-    <t>结果3</t>
-  </si>
-  <si>
     <t>建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,21 +91,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建议1</t>
+    <t>[40,100]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建议2</t>
-  </si>
-  <si>
-    <t>建议3</t>
+    <t>[30,39]</t>
+  </si>
+  <si>
+    <t>[30,39]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行其他体制测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有气虚质倾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食用具有益气健脾作用的食物，如黄豆、白扁豆、鸡肉等。少食空心菜、生萝卜等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有气虚质体制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您不是气虚质体制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您不是阳虚质体制</t>
+  </si>
+  <si>
+    <t>您有阳虚质倾向</t>
+  </si>
+  <si>
+    <t>您有阳虚质体制</t>
+  </si>
+  <si>
+    <t>您不是痰湿质体制</t>
+  </si>
+  <si>
+    <t>您有痰湿质倾向</t>
+  </si>
+  <si>
+    <t>您有痰湿质体制</t>
+  </si>
+  <si>
+    <t>您不是热湿质</t>
+  </si>
+  <si>
+    <t>您有热湿质倾向</t>
+  </si>
+  <si>
+    <t>您有热湿质体制</t>
+  </si>
+  <si>
+    <t>您不是血瘀质</t>
+  </si>
+  <si>
+    <t>您有血瘀质倾向</t>
+  </si>
+  <si>
+    <t>您有血瘀质体制</t>
+  </si>
+  <si>
+    <t>您不是气郁质</t>
+  </si>
+  <si>
+    <t>您有气郁质倾向</t>
+  </si>
+  <si>
+    <t>您有气郁质体制</t>
+  </si>
+  <si>
+    <t>您不是特禀质</t>
+  </si>
+  <si>
+    <t>您有特禀质倾向</t>
+  </si>
+  <si>
+    <t>您有特禀质体制</t>
+  </si>
+  <si>
+    <t>您不是阴虚质</t>
+  </si>
+  <si>
+    <t>您有阴虚质倾向</t>
+  </si>
+  <si>
+    <t>您有阴虚质体制</t>
+  </si>
+  <si>
+    <t>[60,100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,59]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您不是平和质体制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：平时可多食牛肉、羊肉等温阳之品，少食梨、西瓜、荸荠等生冷寒凉食物，少饮绿茶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：平时可多食牛肉、羊肉等温阳之品，少食梨、西瓜、荸荠等生冷寒凉食物，少饮绿茶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食瘦猪肉、鸭肉、绿豆、冬瓜等甘凉滋润之品，少食羊肉、韭菜、辣椒、葵花子等性温燥烈之品。适合太极拳、太极剑、气功等项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：饮食应以清淡为主，可多食冬瓜等。因体形肥胖，易于困倦，故应根据自己的具体情况循序渐进，长期坚持运动锻炼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：饮食应以清淡为主，可多食冬瓜等。因体形肥胖，易于困倦，故应根据自己的具体情况循序渐进，长期坚持运动锻炼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：饮食以清淡为主，可多食赤小豆、绿豆、芹菜、黄瓜、藕等甘寒的食物。适合中长跑、游泳、爬山、各种球类、武术等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食山楂、醋、玫瑰花等，少食肥肉等滋腻之品。可参加各种舞蹈、步行健身法、徒手健身操等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食山楂、醋、玫瑰花等，少食肥肉等滋腻之品。可参加各种舞蹈、步行健身法、徒手健身操等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食黄花菜、海带、山楂、玫瑰花等具有行气、解郁、消食、醒神作用的食物。气郁体质的人不要总待在家里，要多参加群众性的体育运动项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食黄花菜、海带、山楂、玫瑰花等具有行气、解郁、消食、醒神作用的食物。气郁体质的人不要总待在家里，要多参加群众性的体育运动项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食益气固表的食物，少食荞麦(含致敏物质荞麦荧光素)、蚕豆等。居室宜通风良好。保持室内清洁，被褥、床单要经常洗晒，可防止对尘螨过敏。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节：多食益气固表的食物，少食荞麦(含致敏物质荞麦荧光素)、蚕豆等。居室宜通风良好。保持室内清洁，被褥、床单要经常洗晒，可防止对尘螨过敏。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行其他体制测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如您没有其他八种体制倾向
+您就是平和质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,29]</t>
+  </si>
+  <si>
+    <t>[0,29]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +278,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,13 +311,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,16 +605,16 @@
   <dimension ref="A1:G604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -485,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
       <c r="G1"/>
     </row>
@@ -506,10 +654,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2"/>
     </row>
@@ -527,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3"/>
     </row>
@@ -548,10 +696,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4"/>
     </row>
@@ -563,13 +711,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5"/>
     </row>
@@ -581,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G6"/>
     </row>
@@ -599,127 +747,435 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B30">
         <v>26</v>
       </c>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F30"/>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F32"/>
       <c r="G32"/>
     </row>
